--- a/example/config/ai_行为/ai行为.xlsx
+++ b/example/config/ai_行为/ai行为.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code_mygithub\configgen\example\config\ai_行为\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygithub\configgen\example\config\ai_行为\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD9B2C-64AB-4DB8-847F-F4D42F886F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CB45F7-F81F-4A41-B863-40FCF8543EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="11925" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="3810" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__CONFIG" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="173">
   <si>
     <t>sheet</t>
   </si>
@@ -635,6 +635,25 @@
   <si>
     <t>触发间隔是按照帧时间来计算的</t>
   </si>
+  <si>
+    <t>新手关塔
+减伤</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述
+这里测试下多行效果
+再来一行</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -643,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +750,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -880,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1018,6 +1054,15 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1996,9 +2041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,12 +2058,12 @@
     <col min="16" max="16" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>3</v>
+      <c r="B1" s="64" t="s">
+        <v>172</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>29</v>
@@ -3671,7 +3716,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3690,8 +3735,8 @@
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>3</v>
+      <c r="B1" s="63" t="s">
+        <v>171</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>88</v>
@@ -4361,18 +4406,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187618C-39A7-471A-A619-12F0212C2728}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>3</v>
+      <c r="B1" s="64" t="s">
+        <v>171</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>88</v>
@@ -4409,8 +4457,8 @@
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>24</v>
+      <c r="B2" s="63" t="s">
+        <v>170</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>78</v>
@@ -4447,8 +4495,8 @@
       <c r="A3">
         <v>10019</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>40</v>
+      <c r="B3" s="62" t="s">
+        <v>169</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4522,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
         <v>1003002</v>
       </c>
@@ -4629,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="42">
         <v>1071013</v>
       </c>
@@ -4646,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="42">
         <v>1071014</v>
       </c>
@@ -4702,7 +4750,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <v>20017</v>
       </c>
